--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt7a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt7a-Fzd5.xlsx
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.170377</v>
+        <v>2.8377025</v>
       </c>
       <c r="N2">
-        <v>4.340754</v>
+        <v>5.675405</v>
       </c>
       <c r="O2">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="P2">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
       <c r="Q2">
-        <v>1.396801101234</v>
+        <v>1.826275332338333</v>
       </c>
       <c r="R2">
-        <v>8.380806607404001</v>
+        <v>10.95765199403</v>
       </c>
       <c r="S2">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="T2">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>15.185923</v>
       </c>
       <c r="O3">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="P3">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
       <c r="Q3">
         <v>3.257761818899777</v>
@@ -641,10 +641,10 @@
         <v>29.319856370098</v>
       </c>
       <c r="S3">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="T3">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.815520666666667</v>
+        <v>4.372280666666666</v>
       </c>
       <c r="N4">
-        <v>11.446562</v>
+        <v>13.116842</v>
       </c>
       <c r="O4">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="P4">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
       <c r="Q4">
-        <v>2.455574984890222</v>
+        <v>2.813891987476888</v>
       </c>
       <c r="R4">
-        <v>22.100174864012</v>
+        <v>25.32502788729199</v>
       </c>
       <c r="S4">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="T4">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.3695805</v>
+        <v>2.1625465</v>
       </c>
       <c r="N5">
-        <v>4.739161</v>
+        <v>4.325093</v>
       </c>
       <c r="O5">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="P5">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
       <c r="Q5">
-        <v>1.525003560147667</v>
+        <v>1.391761584586333</v>
       </c>
       <c r="R5">
-        <v>9.150021360886001</v>
+        <v>8.350569507517999</v>
       </c>
       <c r="S5">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="T5">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.288577</v>
+        <v>15.97657333333333</v>
       </c>
       <c r="N6">
-        <v>9.865731</v>
+        <v>47.92972</v>
       </c>
       <c r="O6">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="P6">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
       <c r="Q6">
-        <v>2.116447038967333</v>
+        <v>10.28212850852444</v>
       </c>
       <c r="R6">
-        <v>19.048023350706</v>
+        <v>92.53915657672</v>
       </c>
       <c r="S6">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="T6">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.666218666666667</v>
+        <v>2.894743333333333</v>
       </c>
       <c r="N7">
-        <v>13.998656</v>
+        <v>8.684229999999999</v>
       </c>
       <c r="O7">
-        <v>0.2183307357409577</v>
+        <v>0.08691403710794816</v>
       </c>
       <c r="P7">
-        <v>0.2349682939430755</v>
+        <v>0.0914926779403015</v>
       </c>
       <c r="Q7">
-        <v>3.003063233806222</v>
+        <v>1.862985405664444</v>
       </c>
       <c r="R7">
-        <v>27.027569104256</v>
+        <v>16.76686865098</v>
       </c>
       <c r="S7">
-        <v>0.2183307357409577</v>
+        <v>0.08691403710794816</v>
       </c>
       <c r="T7">
-        <v>0.2349682939430755</v>
+        <v>0.0914926779403015</v>
       </c>
     </row>
   </sheetData>
